--- a/Running projects/State Life Insurance, Karachi/BOQ/MEP BOQs - 8th Floor (1).xlsx
+++ b/Running projects/State Life Insurance, Karachi/BOQ/MEP BOQs - 8th Floor (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Desktop\State Life Insurance, Karachi\BOQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\State Life Insurance, Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F4EBE6-41A3-4636-8146-CD4BD5066E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C97403-2734-496F-B668-EEFD0D4E92CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TITLE PAGE-8" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'HVAC BOQ'!$8:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'Plumbing BOQ'!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -4761,7 +4761,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -6154,9 +6154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6194,9 +6194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6229,9 +6229,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6264,9 +6281,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6651,8 +6685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A7:F45"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10379,7 +10413,7 @@
   </sheetPr>
   <dimension ref="A7:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
